--- a/Harmonized_Inventory_20240510.xlsx
+++ b/Harmonized_Inventory_20240510.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubss\exer2\excel_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Harmonized Inventory" sheetId="1" r:id="rId4"/>
-    <sheet name="codes" sheetId="2" r:id="rId5"/>
+    <sheet name="Harmonized Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="codes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -232,28 +236,23 @@
   </si>
   <si>
     <t>PENDING REQUEST FOR RELIEF</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -264,14 +263,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -285,27 +287,33 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -595,23 +603,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -753,281 +757,247 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="81.265869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15"/>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31"/>
-      <c r="B31"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>